--- a/doc/HUE.Humans.Spectaculars.xlsx
+++ b/doc/HUE.Humans.Spectaculars.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17830"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workstation\Source\GitHub\HUE.Humans\doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="30" windowWidth="17235" windowHeight="6045" activeTab="1"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="38">
   <si>
     <t>开发</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -158,11 +163,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>搭建项目框架（前端）
-2017-04-21</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>需求文档初稿
 2017-04-13</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -170,24 +170,33 @@
   <si>
     <t>待办任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端架构调研，任务起始于2017-04-28，目标完成日期2017-05-19</t>
+  </si>
+  <si>
+    <t>前端架构调研，任务起始于2017-04-28，目标完成日期2017-05-19</t>
+  </si>
+  <si>
+    <t>部署环境调研，任务起始于2017-04-28，目标完成日期2017-05-19</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -196,7 +205,24 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -257,7 +283,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -297,51 +323,54 @@
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -377,12 +406,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -424,7 +456,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -457,9 +489,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -492,6 +541,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -674,56 +740,56 @@
       <selection activeCell="A2" sqref="A2:K30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
-    <col min="2" max="2" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.125" customWidth="1"/>
-    <col min="4" max="4" width="5.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.140625" customWidth="1"/>
+    <col min="4" max="4" width="5.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15" t="s">
+      <c r="G2" s="23"/>
+      <c r="H2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15" t="s">
+      <c r="I2" s="23"/>
+      <c r="J2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="23" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="15"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="23"/>
       <c r="F3" s="9" t="s">
         <v>4</v>
       </c>
@@ -736,17 +802,17 @@
       <c r="I3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="13">
         <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -761,14 +827,14 @@
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11">
       <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="13">
         <v>2</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -783,8 +849,8 @@
       <c r="J5" s="10"/>
       <c r="K5" s="9"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="D6" s="14">
+    <row r="6" spans="1:11">
+      <c r="D6" s="13">
         <v>3</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -799,11 +865,11 @@
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="D7" s="14">
+    <row r="7" spans="1:11">
+      <c r="D7" s="13">
         <v>4</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="15" t="s">
         <v>21</v>
       </c>
       <c r="F7" s="11">
@@ -815,17 +881,17 @@
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
     </row>
-    <row r="8" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" ht="30">
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="13">
         <v>5</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="14" t="s">
         <v>22</v>
       </c>
       <c r="F8" s="12">
@@ -837,14 +903,14 @@
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="D9" s="14">
+    <row r="9" spans="1:11">
+      <c r="D9" s="13">
         <v>6</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="20">
+      <c r="F9" s="17">
         <v>42846</v>
       </c>
       <c r="G9" s="9"/>
@@ -853,8 +919,8 @@
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="D10" s="14">
+    <row r="10" spans="1:11">
+      <c r="D10" s="13">
         <v>7</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -867,30 +933,30 @@
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="D11" s="14">
+    <row r="11" spans="1:11">
+      <c r="D11" s="13">
         <v>8</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="15" t="s">
         <v>25</v>
       </c>
       <c r="F11" s="1"/>
-      <c r="G11" s="21">
+      <c r="G11" s="18">
         <v>42859</v>
       </c>
       <c r="H11" s="1"/>
-      <c r="I11" s="18" t="s">
+      <c r="I11" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="J11" s="21">
+      <c r="J11" s="18">
         <v>42863</v>
       </c>
-      <c r="K11" s="21">
+      <c r="K11" s="18">
         <v>42865</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="D12" s="14">
+    <row r="12" spans="1:11">
+      <c r="D12" s="13">
         <v>9</v>
       </c>
       <c r="E12" s="1"/>
@@ -901,8 +967,8 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="D13" s="14">
+    <row r="13" spans="1:11">
+      <c r="D13" s="13">
         <v>10</v>
       </c>
       <c r="E13" s="1"/>
@@ -913,8 +979,8 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="D14" s="14">
+    <row r="14" spans="1:11">
+      <c r="D14" s="13">
         <v>11</v>
       </c>
       <c r="E14" s="1"/>
@@ -925,8 +991,8 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="D15" s="14">
+    <row r="15" spans="1:11">
+      <c r="D15" s="13">
         <v>12</v>
       </c>
       <c r="E15" s="1"/>
@@ -937,8 +1003,8 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="D16" s="14">
+    <row r="16" spans="1:11">
+      <c r="D16" s="13">
         <v>13</v>
       </c>
       <c r="E16" s="1"/>
@@ -949,8 +1015,8 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="4:11" x14ac:dyDescent="0.15">
-      <c r="D17" s="14">
+    <row r="17" spans="4:11">
+      <c r="D17" s="13">
         <v>14</v>
       </c>
       <c r="E17" s="1"/>
@@ -961,8 +1027,8 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="4:11" x14ac:dyDescent="0.15">
-      <c r="D18" s="14">
+    <row r="18" spans="4:11">
+      <c r="D18" s="13">
         <v>15</v>
       </c>
       <c r="E18" s="1"/>
@@ -973,8 +1039,8 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="4:11" x14ac:dyDescent="0.15">
-      <c r="D19" s="14">
+    <row r="19" spans="4:11">
+      <c r="D19" s="13">
         <v>16</v>
       </c>
       <c r="E19" s="1"/>
@@ -985,8 +1051,8 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="4:11" x14ac:dyDescent="0.15">
-      <c r="D20" s="14">
+    <row r="20" spans="4:11">
+      <c r="D20" s="13">
         <v>17</v>
       </c>
       <c r="E20" s="1"/>
@@ -997,8 +1063,8 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" spans="4:11" x14ac:dyDescent="0.15">
-      <c r="D21" s="14">
+    <row r="21" spans="4:11">
+      <c r="D21" s="13">
         <v>18</v>
       </c>
       <c r="E21" s="1"/>
@@ -1009,8 +1075,8 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="4:11" x14ac:dyDescent="0.15">
-      <c r="D22" s="14">
+    <row r="22" spans="4:11">
+      <c r="D22" s="13">
         <v>19</v>
       </c>
       <c r="E22" s="1"/>
@@ -1021,8 +1087,8 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" spans="4:11" x14ac:dyDescent="0.15">
-      <c r="D23" s="14">
+    <row r="23" spans="4:11">
+      <c r="D23" s="13">
         <v>20</v>
       </c>
       <c r="E23" s="1"/>
@@ -1033,8 +1099,8 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
     </row>
-    <row r="24" spans="4:11" x14ac:dyDescent="0.15">
-      <c r="D24" s="14">
+    <row r="24" spans="4:11">
+      <c r="D24" s="13">
         <v>21</v>
       </c>
       <c r="E24" s="1"/>
@@ -1045,8 +1111,8 @@
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
     </row>
-    <row r="25" spans="4:11" x14ac:dyDescent="0.15">
-      <c r="D25" s="14">
+    <row r="25" spans="4:11">
+      <c r="D25" s="13">
         <v>22</v>
       </c>
       <c r="E25" s="1"/>
@@ -1057,8 +1123,8 @@
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
     </row>
-    <row r="26" spans="4:11" x14ac:dyDescent="0.15">
-      <c r="D26" s="14">
+    <row r="26" spans="4:11">
+      <c r="D26" s="13">
         <v>23</v>
       </c>
       <c r="E26" s="1"/>
@@ -1069,8 +1135,8 @@
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
     </row>
-    <row r="27" spans="4:11" x14ac:dyDescent="0.15">
-      <c r="D27" s="14">
+    <row r="27" spans="4:11">
+      <c r="D27" s="13">
         <v>24</v>
       </c>
       <c r="E27" s="1"/>
@@ -1081,8 +1147,8 @@
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
     </row>
-    <row r="28" spans="4:11" x14ac:dyDescent="0.15">
-      <c r="D28" s="14">
+    <row r="28" spans="4:11">
+      <c r="D28" s="13">
         <v>25</v>
       </c>
       <c r="E28" s="1"/>
@@ -1112,310 +1178,319 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="21.375" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" customWidth="1"/>
+    <col min="4" max="4" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="66.5703125" customWidth="1"/>
+    <col min="7" max="7" width="34.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:7" ht="15.75">
+      <c r="A2" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="C2" s="26"/>
+      <c r="D2" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" s="13" t="s">
+      <c r="E2" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="25" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="30">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="13">
         <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="23" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="F3" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="75">
       <c r="A4" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="13">
         <v>2</v>
       </c>
       <c r="E4" s="9"/>
-      <c r="F4" s="23" t="s">
-        <v>32</v>
+      <c r="F4" s="20" t="s">
+        <v>36</v>
       </c>
       <c r="G4" s="12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="60">
       <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="13">
         <v>3</v>
       </c>
       <c r="E5" s="1"/>
-      <c r="F5" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" s="22" t="s">
+      <c r="F5" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="19" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="3"/>
-      <c r="D6" s="14">
+    <row r="6" spans="1:7" ht="30">
+      <c r="A6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="13">
         <v>4</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="25"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G6" s="20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="30">
       <c r="A7" s="3"/>
-      <c r="D7" s="14">
+      <c r="D7" s="13">
         <v>5</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="25"/>
-    </row>
-    <row r="8" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="14">
+      <c r="G7" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="D8" s="13">
         <v>6</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="25"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G8" s="22"/>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="3"/>
-      <c r="D9" s="14">
+      <c r="D9" s="13">
         <v>7</v>
       </c>
       <c r="F9" s="1"/>
-      <c r="G9" s="25"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G9" s="22"/>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="3"/>
-      <c r="D10" s="14">
+      <c r="D10" s="13">
         <v>8</v>
       </c>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="3"/>
-      <c r="D11" s="14">
+      <c r="D11" s="13">
         <v>9</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="25"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G11" s="22"/>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="3"/>
-      <c r="D12" s="14">
+      <c r="D12" s="13">
         <v>10</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7">
       <c r="A13" s="3"/>
-      <c r="D13" s="14">
+      <c r="D13" s="13">
         <v>11</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7">
       <c r="A14" s="3"/>
-      <c r="D14" s="14">
+      <c r="D14" s="13">
         <v>12</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7">
       <c r="A15" s="3"/>
-      <c r="D15" s="14">
+      <c r="D15" s="13">
         <v>13</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7">
       <c r="A16" s="3"/>
-      <c r="D16" s="14">
+      <c r="D16" s="13">
         <v>14</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7">
       <c r="A17" s="3"/>
-      <c r="D17" s="14">
+      <c r="D17" s="13">
         <v>15</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7">
       <c r="A18" s="3"/>
-      <c r="D18" s="14">
+      <c r="D18" s="13">
         <v>16</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7">
       <c r="A19" s="3"/>
-      <c r="D19" s="14">
+      <c r="D19" s="13">
         <v>17</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7">
       <c r="A20" s="3"/>
-      <c r="D20" s="14">
+      <c r="D20" s="13">
         <v>18</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7">
       <c r="A21" s="3"/>
-      <c r="D21" s="14">
+      <c r="D21" s="13">
         <v>19</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7">
       <c r="A22" s="3"/>
-      <c r="D22" s="14">
+      <c r="D22" s="13">
         <v>20</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7">
       <c r="A23" s="3"/>
-      <c r="D23" s="14">
+      <c r="D23" s="13">
         <v>21</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7">
       <c r="A24" s="3"/>
-      <c r="D24" s="14">
+      <c r="D24" s="13">
         <v>22</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7">
       <c r="A25" s="3"/>
-      <c r="D25" s="14">
+      <c r="D25" s="13">
         <v>23</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7">
       <c r="A26" s="3"/>
-      <c r="D26" s="14">
+      <c r="D26" s="13">
         <v>24</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7">
       <c r="A27" s="3"/>
-      <c r="D27" s="14">
+      <c r="D27" s="13">
         <v>25</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7">
       <c r="A28" s="3"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7">
       <c r="A29" s="3"/>
       <c r="D29" s="3"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:7">
       <c r="A30" s="3"/>
       <c r="D30" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1425,7 +1500,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
